--- a/Outputs/100-samples.xlsx
+++ b/Outputs/100-samples.xlsx
@@ -496,12 +496,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>अंबुजा सीमेंट्स का सितंबर क्वार्टर रिजल्ट जारी, मुनाफा 22% घटकर ₹501 करोड़ रिपोर्ट, ऑपरेटिंग EBITDA 12% फिसला</t>
+          <t>अडानी अंबुजा सीमेंट प्लांट विस्तार पर जनसुनवाई: ग्रामीणों ने कहा, ना रोड मिला ना रोजगार</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>https://hindi.economictimes.com/markets/share-bazaar/ambuja-cements-q2-result-release-ambuja-cements-net-profit-operating-ebitda-down-on-yoy-basis-ambuja-cements-share-price/articleshow/114687624.cms</t>
+          <t>https://www.etvbharat.com/hi/!state/balodabazar-adani-ambuja-cement-plant-expansion-public-hearing-villagers-raised-issues-of-employment-road-and-water-crisis-chhattisgarh-news-cts25010901003</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -536,12 +536,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Ambuja Cements Q2 Results: सितंबर तिमाही में 42% गिरा मुनाफा, फिर भी इस कारण शेयर बने रॉकेट</t>
+          <t>अंबुजा सीमेंट्स में ब्लॉक डील, लॉस होगा या मुनाफा!</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>https://hindi.moneycontrol.com/news/markets/ambuja-cements-q2-results-consolidated-net-profit-falls-42-percent-on-year-to-rupees-456-crore-but-share-price-jumps-over-over-5-percent-1933030.html</t>
+          <t>https://hindi.moneycontrol.com/news/videos/markets/hotstocks/block-deal-in-ambuja-cements-will-it-be-loss-or-profit-1921075.html</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -576,12 +576,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>अंबुजा सीमेंट्स ने ओरिएंट सीमेंट में मैजॉरिटी हिस्सेदारी हासिल करने के लिए CCI से मांगी मंज़ूरी</t>
+          <t>अंबुजा सीमेंट्स और अदाणी सीमेंटेशन के मर्जर को BSE, NSE से मिला 'नो ऑब्जेक्शन'</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>https://ndtv.in/business-news/ambuja-cements-seeks-cci-nod-to-acquire-majority-stake-in-orient-cement-6995930</t>
+          <t>https://ndtv.in/business-news/adani-group-owned-ambuja-cements-merger-with-adani-cementation-bse-nse-issue-no-objection-7381598</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -616,12 +616,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Adani Deal: ओरियंट सीमेंट में 8100 करोड़ रुपये के मूल्यांकन पर हिस्सेदारी खरीदेगी अंबुजा सीमेंट, जानें डिटेल्स</t>
+          <t>Ambuja Cement Q3 Results: दिसंबर तिमाही में तीन गुना बढ़ा मुनाफा, लेकिन फिर भी टूटे शेयर</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>https://www.amarujala.com/business/business-diary/ambuja-to-acquire-orient-cement-at-equity-value-of-rs-8-100-crore-to-make-open-offer-to-acquire-additional-26-2024-10-22</t>
+          <t>https://hindi.moneycontrol.com/news/company/company-results/ambuja-cement-q3-results-reports-242-percent-jump-in-q3-net-profit-but-shares-sink-5-percent-1954096.html</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -656,12 +656,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>अंबुजा सीमेंट्स और अदाणी सीमेंटेशन के मर्जर को BSE, NSE से मिला 'नो ऑब्जेक्शन'</t>
+          <t>अंबुजा सीमेंट्स ने ओरिएंट सीमेंट में मैजॉरिटी हिस्सेदारी हासिल करने के लिए CCI से मांगी मंज़ूरी</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>https://ndtv.in/business-news/adani-group-owned-ambuja-cements-merger-with-adani-cementation-bse-nse-issue-no-objection-7381598</t>
+          <t>https://ndtv.in/business-news/ambuja-cements-seeks-cci-nod-to-acquire-majority-stake-in-orient-cement-6995930</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -696,12 +696,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Ambuja Cement Q3 Results: दिसंबर तिमाही में तीन गुना बढ़ा मुनाफा, लेकिन फिर भी टूटे शेयर</t>
+          <t>अडाणी ग्रुप की कंपनी के प्रॉफिट में 157% की छप्परफाड़ बढ़ोतरी, रेवेन्यू और नेटवर्थ में भी तेजी</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>https://hindi.moneycontrol.com/news/company/company-results/ambuja-cement-q3-results-reports-242-percent-jump-in-q3-net-profit-but-shares-sink-5-percent-1954096.html</t>
+          <t>https://www.indiatv.in/paisa/business/adani-group-company-ambuja-cements-profit-increased-by-157-percent-revenue-and-net-worth-also-increased-2025-01-29-1109143</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -736,12 +736,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>अडानी ग्रुप के 1.28 लाख करोड़ रु मार्केट कैप वाले स्टॉक पर मोतीलाल ओसवाल बुलिश, कहा, सस्ता मिल रहा है, 38% के टारगेट</t>
+          <t>अदाणी ग्रुप का बड़ा दांव, अंबुजा सीमेंट्स ने 8,100 करोड़ रुपये में किया ओरिएंट सीमेंट का अधिग्रहण</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>https://hindi.economictimes.com/markets/share-bazaar/ambuja-cements-share-price-motilal-oswal-bulish-valuation-attractive-target-price/articleshow/115890927.cms</t>
+          <t>https://ndtv.in/business-news/adani-group-expands-cement-business-ambuja-cements-acquires-orient-cement-in-rs-8100-crore-deal-6844884</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -776,12 +776,12 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>अडाणी ग्रुप की कंपनी के प्रॉफिट में 157% की छप्परफाड़ बढ़ोतरी, रेवेन्यू और नेटवर्थ में भी तेजी</t>
+          <t>Adani Group News: Ambuja Cements का बड़ा प्लान, खरीदेगी Orient Cement की 46% हिस्सेदारी, फिर करेगी यह काम</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>https://www.indiatv.in/paisa/business/adani-group-company-ambuja-cements-profit-increased-by-157-percent-revenue-and-net-worth-also-increased-2025-01-29-1109143</t>
+          <t>https://hindi.moneycontrol.com/news/markets/adani-group-news-ambuja-cements-to-acquire-over-46-percent-stake-in-orient-cement-from-promoters-public-at-rupee-8100-crore-valuation-1931832.html</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -816,12 +816,12 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Ambuja Cements Q2 results : दूसरी तिमाही में 42% गिर गया अडानी ग्रुप के अंबुजा सीमेंट का मुनाफा, जानिए शेयर</t>
+          <t>Ambuja Cement Q3 Results: शानदार रही कंपनी की परफॉर्मेंस, नेट प्रॉफिट में 242% की बढ़ोतरी</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>https://www.indiatv.in/paisa/business/adani-group-company-ambuja-cement-profit-fell-by-42-percent-in-second-quarter-2024-10-28-1086713</t>
+          <t>https://hindi.moneycontrol.com/news/company/company-results/ambuja-cement-q3-net-profit-surges-242-percent-to-rs-1758-crore-1953896.html</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -856,12 +856,12 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Ambuja Cements Q3 Results: अंबुजा सीमेंट ने लगाई मुनाफे की हैट्रिक, 242% बढ़ गई कमाई</t>
+          <t>Ambuja Cements' का शुद्ध लाभ तीसरी तिमाही में दोगुना से अधिक हुआ</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>https://www.zeebiz.com/hindi/companies/ambuja-cements-q3-results-hits-a-hat-trick-of-profits-earnings-surge-by-242-to-rs-1758-crore-199863</t>
+          <t>https://www.deshsewak.org/hindi/news/186812</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -896,12 +896,12 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>अंबुजा सीमेंट्स में ब्लॉक डील, लॉस होगा या मुनाफा!</t>
+          <t>Adani Deal: ओरियंट सीमेंट में 8100 करोड़ रुपये के मूल्यांकन पर हिस्सेदारी खरीदेगी अंबुजा सीमेंट, जानें डिटेल्स</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>https://hindi.moneycontrol.com/news/videos/markets/hotstocks/block-deal-in-ambuja-cements-will-it-be-loss-or-profit-1921075.html</t>
+          <t>https://www.amarujala.com/business/business-diary/ambuja-to-acquire-orient-cement-at-equity-value-of-rs-8-100-crore-to-make-open-offer-to-acquire-additional-26-2024-10-22</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -936,12 +936,12 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Ambuja Cements' का शुद्ध लाभ तीसरी तिमाही में दोगुना से अधिक हुआ</t>
+          <t>अडानी ग्रुप के 1.28 लाख करोड़ रु मार्केट कैप वाले स्टॉक पर मोतीलाल ओसवाल बुलिश, कहा, सस्ता मिल रहा है, 38% के टारगेट</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>https://www.deshsewak.org/hindi/news/186812</t>
+          <t>https://hindi.economictimes.com/markets/share-bazaar/ambuja-cements-share-price-motilal-oswal-bulish-valuation-attractive-target-price/articleshow/115890927.cms</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -976,12 +976,12 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>अडानी अंबुजा सीमेंट प्लांट विस्तार पर जनसुनवाई: ग्रामीणों ने कहा, ना रोड मिला ना रोजगार</t>
+          <t>Adani Group ने पेन्ना सीमेंट और सांघी इंडस्ट्रीज का अंबुजा सीमेंट के साथ मर्जर को दी मंजूरी</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>https://www.etvbharat.com/hi/!state/balodabazar-adani-ambuja-cement-plant-expansion-public-hearing-villagers-raised-issues-of-employment-road-and-water-crisis-chhattisgarh-news-cts25010901003</t>
+          <t>https://ndtv.in/business-news/adani-group-announces-merger-of-sanghi-industries-and-penna-cement-with-ambuja-cements-7273906</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1016,12 +1016,12 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>बजट 2025 से सीमेंट सेक्टर की बढ़ सकती है चमक; ब्रोकरेज ने इस Cement Stock से जताया तेजी की उम्मीद</t>
+          <t>Ambuja Cements Q3 Results: अंबुजा सीमेंट ने लगाई मुनाफे की हैट्रिक, 242% बढ़ गई कमाई</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>https://hindi.economictimes.com/wealth/bachat/before-budget-2025-cement-stock-idea-brokerages-incred-given-add-rating-on-ambuja-cements-share-check-ambuja-cements-share-target-price/articleshow/117797821.cms</t>
+          <t>https://www.zeebiz.com/hindi/companies/ambuja-cements-q3-results-hits-a-hat-trick-of-profits-earnings-surge-by-242-to-rs-1758-crore-199863</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1056,12 +1056,12 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>अदाणी ग्रुप का बड़ा दांव, अंबुजा सीमेंट्स ने 8,100 करोड़ रुपये में किया ओरिएंट सीमेंट का अधिग्रहण</t>
+          <t>अंबुजा सीमेंट्स का सितंबर क्वार्टर रिजल्ट जारी, मुनाफा 22% घटकर ₹501 करोड़ रिपोर्ट, ऑपरेटिंग EBITDA 12% फिसला</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>https://ndtv.in/business-news/adani-group-expands-cement-business-ambuja-cements-acquires-orient-cement-in-rs-8100-crore-deal-6844884</t>
+          <t>https://hindi.economictimes.com/markets/share-bazaar/ambuja-cements-q2-result-release-ambuja-cements-net-profit-operating-ebitda-down-on-yoy-basis-ambuja-cements-share-price/articleshow/114687624.cms</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1136,12 +1136,12 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Adani Group News: Ambuja Cements का बड़ा प्लान, खरीदेगी Orient Cement की 46% हिस्सेदारी, फिर करेगी यह काम</t>
+          <t>Ambuja Cements Q3 Results: दिसंबर तिमाही में मुनाफे में 157% का उछाल</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>https://hindi.moneycontrol.com/news/markets/adani-group-news-ambuja-cements-to-acquire-over-46-percent-stake-in-orient-cement-from-promoters-public-at-rupee-8100-crore-valuation-1931832.html</t>
+          <t>https://ndtv.in/business-news/ambuja-cements-net-profit-more-than-doubles-in-q3-7586743</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1176,12 +1176,12 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Ambuja Cement Q3 Results: शानदार रही कंपनी की परफॉर्मेंस, नेट प्रॉफिट में 242% की बढ़ोतरी</t>
+          <t>Ambuja Cements Q2 results : दूसरी तिमाही में 42% गिर गया अडानी ग्रुप के अंबुजा सीमेंट का मुनाफा, जानिए शेयर</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>https://hindi.moneycontrol.com/news/company/company-results/ambuja-cement-q3-net-profit-surges-242-percent-to-rs-1758-crore-1953896.html</t>
+          <t>https://www.indiatv.in/paisa/business/adani-group-company-ambuja-cement-profit-fell-by-42-percent-in-second-quarter-2024-10-28-1086713</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1216,12 +1216,12 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Adani Group ने पेन्ना सीमेंट और सांघी इंडस्ट्रीज का अंबुजा सीमेंट के साथ मर्जर को दी मंजूरी</t>
+          <t>Ambuja Cements Q2 Results: सितंबर तिमाही में 42% गिरा मुनाफा, फिर भी इस कारण शेयर बने रॉकेट</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>https://ndtv.in/business-news/adani-group-announces-merger-of-sanghi-industries-and-penna-cement-with-ambuja-cements-7273906</t>
+          <t>https://hindi.moneycontrol.com/news/markets/ambuja-cements-q2-results-consolidated-net-profit-falls-42-percent-on-year-to-rupees-456-crore-but-share-price-jumps-over-over-5-percent-1933030.html</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1256,12 +1256,12 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Ambuja Cements Q3 Results: दिसंबर तिमाही में मुनाफे में 157% का उछाल</t>
+          <t>बजट 2025 से सीमेंट सेक्टर की बढ़ सकती है चमक; ब्रोकरेज ने इस Cement Stock से जताया तेजी की उम्मीद</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>https://ndtv.in/business-news/ambuja-cements-net-profit-more-than-doubles-in-q3-7586743</t>
+          <t>https://hindi.economictimes.com/wealth/bachat/before-budget-2025-cement-stock-idea-brokerages-incred-given-add-rating-on-ambuja-cements-share-check-ambuja-cements-share-target-price/articleshow/117797821.cms</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1296,12 +1296,12 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>वर्षभरात भरघोस परतावा मिळवण्यासाठी Motilal Oswal यांनी सूचवले 5 शेअर्स; मजबूत फंडामेंटल्सच्या आधारावर निवड</t>
+          <t>अंबुजा सिमेंटमध्ये मोठ्या घडामोडींमुळे सांघी इंडस्ट्रीजच्या शेअर धारकांना होणार फायदा</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>https://marathi.economictimes.com/markets/share-market/motilal-oswal-fundamental-picks-maharatna-psu-stock-ambuja-cements-hdfc-life-varun-beverages-power-grid-titan-check-target-price/articleshow/113985675.cms</t>
+          <t>https://www.loksatta.com/business/finance/sanghi-industries-shareholders-will-benefit-from-major-developments-in-ambuja-cement-print-eco-news-amy-95-4774937/</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1336,12 +1336,12 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>बातम्यांमधील स्टॉक्स: अंबुजा सिमेंट, Alivus Life, रूट मोबाइल, LTIMindtree, अरबिंदो फार्मा</t>
+          <t>अदानींनी घेतली आणखी एक सिमेंट कंपनी, शेअर्स विक्रमी उच्चांकावर</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>https://marathi.economictimes.com/markets/share-market/stocks-in-news-today-route-mobile-aurobindo-pharma-ltimindtree-ambuja-cement-alivus-life-on-18-dec/articleshow/116417414.cms</t>
+          <t>https://marathi.economictimes.com/business-news/ambuja-cements-signs-agreement-to-buy-orient-cement-limited-for-rs-8100-crore/articleshow/114450514.cms</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1376,12 +1376,12 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>अंबुजा सिमेंटमध्ये मोठ्या घडामोडींमुळे सांघी इंडस्ट्रीजच्या शेअर धारकांना होणार फायदा</t>
+          <t>ब्रोकरेज Axis Securities ने नवीन वर्षाच्या गुंतवणुकीसाठी निवडले 9 शेअर्स; उत्तम परताव्यासाठी खरेदीची संधी</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>https://www.loksatta.com/business/finance/sanghi-industries-shareholders-will-benefit-from-major-developments-in-ambuja-cement-print-eco-news-amy-95-4774937/</t>
+          <t>https://marathi.economictimes.com/markets/share-market/axis-securities-recommendations-for-your-portfolio-shriram-finance-fortis-healthcare-and-amongs/articleshow/116792748.cms</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1416,12 +1416,12 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>जगातील सर्वात मोठी सिमेंट कंपनी भारतातून गाशा गुंडाळणार 'हे' आहे कारण</t>
+          <t>बातम्यांमधील स्टॉक्स: अंबुजा सिमेंट, Alivus Life, रूट मोबाइल, LTIMindtree, अरबिंदो फार्मा</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>https://marathi.abplive.com/business/world-largest-cement-company-will-shut-down-there-business-in-india-ambuja-cement-and-acc-cement-are-these-brand-1050415</t>
+          <t>https://marathi.economictimes.com/markets/share-market/stocks-in-news-today-route-mobile-aurobindo-pharma-ltimindtree-ambuja-cement-alivus-life-on-18-dec/articleshow/116417414.cms</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1456,12 +1456,12 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>गौतम अदानी यांचा एक निर्णय आणि कंपनीसह गुंतवणूकदार झाले मालामाल</t>
+          <t>अदानी थांबायचं नावच घेईनात! आणखी एक सिमेंट कंपनी ताब्यात घेणार, शेअर सुस्साट सुटले!</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>https://www.tv9marathi.com/business/gautam-adanis-decision-doubles-ambuja-cement-profit-investor-goods-with-the-company-in-one-day-1172497.html</t>
+          <t>https://marathi.hindustantimes.com/business/ambuja-cements-to-acquire-orient-cement-for-rs-8-100-crore-share-rises-after-news-141729576128813.html</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -1496,12 +1496,12 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>बजाज ब्रोकिंग, अ‍ॅक्सिस सिक्युरिटीज आणि जेएम फायनान्शिअलने सूचवले New Year Pick; गुंतवणुकीसाठी लक्ष्य किंमत जारी</t>
+          <t>बातम्यांमधील स्टॉक्सः Swiggy, विप्रो, Torrent Power, अंबुजा सिमेंट्स, Tata Power, बीपीसीएल</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>https://marathi.economictimes.com/markets/share-market/bajaj-broking-axis-securities-and-jm-financial-recommend-new-year-pick-know-target-price/articleshow/116847987.cms</t>
+          <t>https://marathi.economictimes.com/markets/share-market/stocks-in-news-today-swiggy-ambuja-cements-wipro-torrent-power-tata-power-bpcl-among-3-dec/articleshow/115916236.cms</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -1536,12 +1536,12 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>‘अंबुजा’ मध्ये संघी इंडस्ट्रीज-पेन्ना सिमेंट होणार विलीन</t>
+          <t>बातम्यांमधील शेअर्स : ट्रेंट, बीईएल, एलटीआय माइंडट्री, अंबुजा सिमेंट्स, अलेम्बिक फार्मा, ट्रान्सपोर्ट कॉर्प</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>https://www.tarunbharat.com/sanghi-industries-penna-cement-to-be-merged-into-ambuja/</t>
+          <t>https://marathi.economictimes.com/markets/share-market/stocks-in-news-trent-bel-ltimindtree-ambuja-cements-alembic-pharma-transport-corp/articleshow/112791609.cms</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -1576,12 +1576,12 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>बातम्यांमधील स्टॉक्सः Swiggy, विप्रो, Torrent Power, अंबुजा सिमेंट्स, Tata Power, बीपीसीएल</t>
+          <t>T+0 settlement cycle | ‘या’ २५ स्टॉक्समध्ये २८ मार्चपासून T+0 सेटलमेंट सुरु होणार, BSE ने दिली यादी</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>https://marathi.economictimes.com/markets/share-market/stocks-in-news-today-swiggy-ambuja-cements-wipro-torrent-power-tata-power-bpcl-among-3-dec/articleshow/115916236.cms</t>
+          <t>https://pudhari.news/bse-released-the-list-of-25-stocks-which-will-be-eligible-for-t0-settlement-cycle</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1656,12 +1656,12 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Adani group: अंबुजा आणि एसीसी या सिमेंट कंपन्या आता अदानी टेकओव्हर करणार, 10.5अब्ज डॉलर्सचा सौदा,...</t>
+          <t>Brand Success Story: अंबुजा सिमेंटची यशोगाथा, कंपनीला सिमेंटच्या जगात ओळख कशी मिळाली?</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>https://www.tv9marathi.com/latest-news/cement-companies-ambuja-and-acc-will-now-take-over-adani-a-10-5-billion-deal-au179-710626.html</t>
+          <t>https://www.esakal.com/desh/ambuja-cement-success-story-how-two-businessmen-from-gujarat-formed-an-empire-stf97</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -1696,12 +1696,12 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>अदानी थांबायचं नावच घेईनात! आणखी एक सिमेंट कंपनी ताब्यात घेणार, शेअर सुस्साट सुटले!</t>
+          <t>गौतम अदानी यांचा एक निर्णय आणि कंपनीसह गुंतवणूकदार झाले मालामाल</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>https://marathi.hindustantimes.com/business/ambuja-cements-to-acquire-orient-cement-for-rs-8-100-crore-share-rises-after-news-141729576128813.html</t>
+          <t>https://www.tv9marathi.com/business/gautam-adanis-decision-doubles-ambuja-cement-profit-investor-goods-with-the-company-in-one-day-1172497.html</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -1736,12 +1736,12 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Adani Group Acquires Penna Cement: अदानी समूहाने 10,422 कोटी</t>
+          <t>चंद्रपूर : अंबुजा सिमेंटच्या लाईमस्टोन खाणीमुळे प्रदूषणात वाढ; दहा ते पंधरा गावांना…</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>https://marathi.latestly.com/india/adani-group-acquired-penna-cement-company-for-rs-10422-crore-555927.html</t>
+          <t>https://www.loksatta.com/nagpur/ambuja-cements-maratha-limestone-mine-in-lakhmapur-korpana-taluka-will-cause-severe-pollution-affecting-nearby-villages-rsj-74-sud-02-4863879/</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -1776,12 +1776,12 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Brand Success Story: अंबुजा सिमेंटची यशोगाथा, कंपनीला सिमेंटच्या जगात ओळख कशी मिळाली?</t>
+          <t>अदानी समूहाने घेतली आणखी एका सिमेंट कंपनी, 10 हजार 422 कोटींमध्ये झाला करार</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>https://www.esakal.com/desh/ambuja-cement-success-story-how-two-businessmen-from-gujarat-formed-an-empire-stf97</t>
+          <t>https://marathi.economictimes.com/business-news/adani-groups-ambuja-cement-announced-acquisition-of-penna-cement-industries-limited-for-rs-10422-crore/articleshow/110973998.cms</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -1816,12 +1816,12 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>बातम्यांमधील शेअर्स : ट्रेंट, बीईएल, एलटीआय माइंडट्री, अंबुजा सिमेंट्स, अलेम्बिक फार्मा, ट्रान्सपोर्ट कॉर्प</t>
+          <t>वर्षभरात भरघोस परतावा मिळवण्यासाठी Motilal Oswal यांनी सूचवले 5 शेअर्स; मजबूत फंडामेंटल्सच्या आधारावर निवड</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>https://marathi.economictimes.com/markets/share-market/stocks-in-news-trent-bel-ltimindtree-ambuja-cements-alembic-pharma-transport-corp/articleshow/112791609.cms</t>
+          <t>https://marathi.economictimes.com/markets/share-market/motilal-oswal-fundamental-picks-maharatna-psu-stock-ambuja-cements-hdfc-life-varun-beverages-power-grid-titan-check-target-price/articleshow/113985675.cms</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -1856,12 +1856,12 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>ब्रोकरेज Axis Securities ने नवीन वर्षाच्या गुंतवणुकीसाठी निवडले 9 शेअर्स; उत्तम परताव्यासाठी खरेदीची संधी</t>
+          <t>जगातील सर्वात मोठी सिमेंट कंपनी भारतातून गाशा गुंडाळणार 'हे' आहे कारण</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>https://marathi.economictimes.com/markets/share-market/axis-securities-recommendations-for-your-portfolio-shriram-finance-fortis-healthcare-and-amongs/articleshow/116792748.cms</t>
+          <t>https://marathi.abplive.com/business/world-largest-cement-company-will-shut-down-there-business-in-india-ambuja-cement-and-acc-cement-are-these-brand-1050415</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -1896,12 +1896,12 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>चंद्रपूर : अंबुजा सिमेंटच्या लाईमस्टोन खाणीमुळे प्रदूषणात वाढ; दहा ते पंधरा गावांना…</t>
+          <t>डील पक्की... गौतम अदानींनी विकत घेतली सिमेंट क्षेत्रातील 'ही' मोठी कंपनी कितीचा</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>https://www.loksatta.com/nagpur/ambuja-cements-maratha-limestone-mine-in-lakhmapur-korpana-taluka-will-cause-severe-pollution-affecting-nearby-villages-rsj-74-sud-02-4863879/</t>
+          <t>https://marathi.abplive.com/business/gautam-adani-adani-group-company-ambuja-cement-acquires-sanghi-industries-share-value-rise-know-details-1197991</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -1936,12 +1936,12 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>अदानी समूहाने घेतली आणखी एका सिमेंट कंपनी, 10 हजार 422 कोटींमध्ये झाला करार</t>
+          <t>Adani group: अंबुजा आणि एसीसी या सिमेंट कंपन्या आता अदानी टेकओव्हर करणार, 10.5अब्ज डॉलर्सचा सौदा,...</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>https://marathi.economictimes.com/business-news/adani-groups-ambuja-cement-announced-acquisition-of-penna-cement-industries-limited-for-rs-10422-crore/articleshow/110973998.cms</t>
+          <t>https://www.tv9marathi.com/latest-news/cement-companies-ambuja-and-acc-will-now-take-over-adani-a-10-5-billion-deal-au179-710626.html</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -1976,12 +1976,12 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>डील पक्की... गौतम अदानींनी विकत घेतली सिमेंट क्षेत्रातील 'ही' मोठी कंपनी कितीचा</t>
+          <t>बजाज ब्रोकिंग, अ‍ॅक्सिस सिक्युरिटीज आणि जेएम फायनान्शिअलने सूचवले New Year Pick; गुंतवणुकीसाठी लक्ष्य किंमत जारी</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>https://marathi.abplive.com/business/gautam-adani-adani-group-company-ambuja-cement-acquires-sanghi-industries-share-value-rise-know-details-1197991</t>
+          <t>https://marathi.economictimes.com/markets/share-market/bajaj-broking-axis-securities-and-jm-financial-recommend-new-year-pick-know-target-price/articleshow/116847987.cms</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -2016,12 +2016,12 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>अदानींनी घेतली आणखी एक सिमेंट कंपनी, शेअर्स विक्रमी उच्चांकावर</t>
+          <t>Adani Group Acquires Penna Cement: अदानी समूहाने 10,422 कोटी</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>https://marathi.economictimes.com/business-news/ambuja-cements-signs-agreement-to-buy-orient-cement-limited-for-rs-8100-crore/articleshow/114450514.cms</t>
+          <t>https://marathi.latestly.com/india/adani-group-acquired-penna-cement-company-for-rs-10422-crore-555927.html</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -2056,12 +2056,12 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>T+0 settlement cycle | ‘या’ २५ स्टॉक्समध्ये २८ मार्चपासून T+0 सेटलमेंट सुरु होणार, BSE ने दिली यादी</t>
+          <t>‘अंबुजा’ मध्ये संघी इंडस्ट्रीज-पेन्ना सिमेंट होणार विलीन</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>https://pudhari.news/bse-released-the-list-of-25-stocks-which-will-be-eligible-for-t0-settlement-cycle</t>
+          <t>https://www.tarunbharat.com/sanghi-industries-penna-cement-to-be-merged-into-ambuja/</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -2096,12 +2096,12 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Sanghi Industries merger: Prefer Ambuja Cements to ACC, 65% upside possible on Adani stock, says Investec</t>
+          <t>UltraTech, JK Cements &amp; Ambuja Cements: Axis shares top 3 stock picks from cement space with up to 29% upside</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>https://www.businesstoday.in/markets/stocks/story/sanghi-industries-merger-prefer-ambuja-cements-to-acc-65-upside-possible-on-adani-stock-says-investec-457709-2024-12-18</t>
+          <t>https://www.businesstoday.in/markets/stocks/story/ultratech-jk-cements-ambuja-cements-axis-shares-top-3-stock-picks-from-cement-space-with-29-upside-464054-2025-02-10</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -2136,12 +2136,12 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Ambuja Cements advances towards net zero with Coolbrook partnership</t>
+          <t>Ambuja Cements’ net profit more than doubles in Q3</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>https://www.thehindubusinessline.com/markets/stock-markets/ambuja-cements-advances-towards-net-zero-with-coolbrook-partnership/article68937129.ece</t>
+          <t>https://www.sarkaritel.com/ambuja-cements-net-profit-more-than-doubles-in-q3/</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -2176,12 +2176,12 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>I-T refund propels Ambuja Cement’s Q3 PAT to ₹2,620 crore</t>
+          <t>Ambuja Cements Faces Continued Stock Decline Amid Market Challenges</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>https://www.thehindu.com/business/i-t-refund-propels-ambuja-cements-q3-pat-to-2620-crore/article69155221.ece</t>
+          <t>https://www.marketsmojo.com/news/stocks-in-action/ambuja-cements-stock-declines-3-19-amid-sustained-underperformance-and-losses-990676</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -2216,12 +2216,12 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Ambuja Cements Q3 earnings: Net profit rises 242%, revenue at Rs 8,415 crore</t>
+          <t>Ambuja Cements - 10 largecap stocks analysts expect to soar by 40%</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>https://www.businesstoday.in/markets/company-stock/story/ambuja-cements-q3-earnings-net-profit-rises-242-revenue-at-rs-8415-crore-462441-2025-01-29</t>
+          <t>https://m.economictimes.com/markets/stocks/news/10-largecap-stocks-analysts-expect-to-soar-by-40/ambuja-cements/slideshow/118003392.cms</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -2256,12 +2256,12 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Adani-owned Ambuja Cements to acquire Orient Cement</t>
+          <t>Ambuja Cements Reports Mixed Q4 Results Amid Strong PAT Growth and Declining PBT</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>https://www.vccircle.com/adaniowned-ambuja-cements-to-acquire-orient-cement</t>
+          <t>https://www.marketsmojo.com/news/result-analysis/ambuja-cements-reports-q3-fy24-25-pat-of-rs-2115-33-crore-net-sales-at-rs-9328-56-crore-397281</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -2296,12 +2296,12 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Jupiter Wagons Secures ₹600 Crore Contract from Ambuja Cements and ACC</t>
+          <t>Ambuja Cements Q2 result: Profit and margin decline in Sept quarter but beat estimates</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>https://themachinemaker.com/news/jupiter-wagons-secures-%E2%82%B9600-crore-contract-from-ambuja-cements-and-acc/</t>
+          <t>https://www.cnbctv18.com/market/earnings/ambuja-cements-q2-result-profit-and-margin-decline-revenue-rises-in-sept-quarter-beat-estimates-19500178.htm</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -2336,12 +2336,12 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Tata Motors, Maruti Suzuki, Bajaj Finance, Ambuja Cements, Raymond Q3 Results Today — Earnings Estimates</t>
+          <t>Confident About Ambuja Cements’ Growth, Merger With Sanghi Industries And Penna Cement: Investec</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>https://www.ndtvprofit.com/quarterly-earnings/tata-motors-maruti-suzuki-bajaj-finance-ambuja-cements-raymond-q3-results-today-earnings-estimates</t>
+          <t>https://www.ndtvprofit.com/markets/ambuja-cements-merger-sanghi-penna-investec-growth</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -2376,12 +2376,12 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Ambuja Cements' net profit more than doubled in Oct-Dec quarter</t>
+          <t>Adani firm Ambuja Cements to merge with subsidiaries Sanghi Industries and Penna Cement</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>https://infra.economictimes.indiatimes.com/news/construction/ambuja-cements-net-profit-more-than-doubled-in-oct-dec-quarter/117684435</t>
+          <t>https://www.cnbctv18.com/market/stocks/ambuja-cements-share-price-adani-firm-announces-merger-with-subsidiaries-sanghi-industries-penna-cement-19525667.htm</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -2416,12 +2416,12 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Adani’s Ambuja Cements acquires Orient Cement for Rs 8,100 crore from CK Birla group</t>
+          <t>Ambuja Cements Q2 FY25: Profit down 43% to Rs 456 crore; revenue climbs 1%</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>https://indianexpress.com/article/business/companies/adanis-ambuja-cements-to-acquire-stake-indias-orient-cement-964-mln-9632732/</t>
+          <t>https://www.businesstoday.in/markets/stocks/story/ambuja-cements-q2-fy25-profit-down-43-to-rs-456-crore-revenue-climbs-1-451785-2024-10-28</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -2456,12 +2456,12 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Adani firm Ambuja Cements to merge with subsidiaries Sanghi Industries and Penna Cement</t>
+          <t>Ambuja Cements acquires Orient Cement at Rs 8,100 crore equity value</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>https://www.cnbctv18.com/market/stocks/ambuja-cements-share-price-adani-firm-announces-merger-with-subsidiaries-sanghi-industries-penna-cement-19525667.htm</t>
+          <t>https://realty.economictimes.indiatimes.com/news/cement/ambuja-cements-acquires-orient-cement-at-rs-8100-crore-equity-value/114488574</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -2496,12 +2496,12 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Ambuja Cements Q3 Results: Sharp contraction in margins, other income aids profit</t>
+          <t>Ambuja Cements Net Profit Surges 157% YoY To Rs 2,115 Cr In Q3</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>https://www.cnbctv18.com/market/ambuja-cements-q3-results-profit-other-income-grants-margin-ebitda-per-tonne-volumes-share-price-reaction-19548311.htm</t>
+          <t>https://www.businessworld.in/article/ambuja-cements-net-profit-surges-157-yoy-to-rs-2115-cr-in-q3-546353</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -2536,12 +2536,12 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Ambuja Cements Net Profit Surges 157% YoY To Rs 2,115 Cr In Q3</t>
+          <t>Ambuja Cements to merge Sanghi Industries, Penna Cement with itself</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>https://www.businessworld.in/article/ambuja-cements-net-profit-surges-157-yoy-to-rs-2115-cr-in-q3-546353</t>
+          <t>https://www.deccanherald.com/business/companies/ambuja-cements-to-merge-sanghi-industries-penna-cement-with-itself-3321662</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -2576,12 +2576,12 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Sanghi Industries Shares: Falls on merger swap ratio with Ambuja Cements</t>
+          <t>Titagarh Rail Secures Order From Ambuja Cements and ACC</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>https://www.thehindubusinessline.com/companies/sanghi-ind-shares-fall-on-merger-swap-ratio-with-ambuja-cements/article68999498.ece</t>
+          <t>https://www.equitypandit.com/titagarh-rail-secures-order-from-ambuja-cements-and-acc/</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -2616,12 +2616,12 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Ambuja Cements Q3 Preview: PAT, revenue may decline YoY as volume remains key factor</t>
+          <t>Motilal Oswal Financial Services maintains buy on Ambuja Cements, lowers target price to Rs 600</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>https://m.economictimes.com/markets/stocks/news/ambuja-cements-q3-preview-net-profit-revenue-likely-decline-yoy/articleshow/117640121.cms</t>
+          <t>https://m.economictimes.com/markets/stocks/recos/motilal-oswal-financial-services-maintains-buy-on-ambuja-cements-lowers-target-price-to-rs-600nbsp/articleshow/117904722.cms</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -2656,12 +2656,12 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Ambuja Cements to buy 47% stake in Orient Cement at Rs 8,100 crore valuation</t>
+          <t>Sanghi Industries merger: Prefer Ambuja Cements to ACC, 65% upside possible on Adani stock, says Investec</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>https://www.businesstoday.in/markets/stocks/story/ambuja-cements-to-buy-47-stake-in-orient-cement-at-rs-8100-crore-valuation-450971-2024-10-22</t>
+          <t>https://www.businesstoday.in/markets/stocks/story/sanghi-industries-merger-prefer-ambuja-cements-to-acc-65-upside-possible-on-adani-stock-says-investec-457709-2024-12-18</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -2696,12 +2696,12 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Ambuja Cements - 10 largecap stocks analysts expect to soar by 40%</t>
+          <t>Vedanta, Ambuja Cements, Bajaj Auto: How to trade these three buzzing stocks</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>https://m.economictimes.com/markets/stocks/news/10-largecap-stocks-analysts-expect-to-soar-by-40/ambuja-cements/slideshow/118003392.cms</t>
+          <t>https://www.businesstoday.in/markets/company-stock/story/vedanta-ambuja-cements-bajaj-auto-how-to-trade-these-three-buzzing-stocks-462207-2025-01-28</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -2736,12 +2736,12 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Adani-owned Ambuja Cements posts Q3 profit surge of 140.21% to Rs 2,620.09 crore, records highest ever cement sales</t>
+          <t>Ambuja Cements share price: Stock down 24% in 6 months; brokerage sees 20% UPSIDE!</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>https://www.financialexpress.com/business/industry-adani-owned-ambuja-cements-posts-q3-profit-surge-of-140-21-to-rs-262009-crore-records-highest-ever-cement-sales-3729963/</t>
+          <t>https://www.etnownews.com/markets/ambuja-cements-share-price-stock-down-24-in-6-months-brokerage-sees-20-upside-article-117744407</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -2776,12 +2776,12 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Ambuja Cements Reports Mixed Q4 Results Amid Strong PAT Growth and Declining PBT</t>
+          <t>Ambuja Cements advances towards net zero with Coolbrook partnership</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>https://www.marketsmojo.com/news/result-analysis/ambuja-cements-reports-q3-fy24-25-pat-of-rs-2115-33-crore-net-sales-at-rs-9328-56-crore-397281</t>
+          <t>https://www.thehindubusinessline.com/markets/stock-markets/ambuja-cements-advances-towards-net-zero-with-coolbrook-partnership/article68937129.ece</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -2816,12 +2816,12 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Ambuja Cements Shows Short-Term Reversal Amid Long-Term Bearish Trends</t>
+          <t>Ambuja Cement Q3 Results: Cons PAT skyrockets 157% YoY to Rs 2,115 crore, revenue rises 4%</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>https://www.marketsmojo.com/news/stocks-in-action/ambuja-cements-gains-3-18-on-february-4-2025-despite-recent-decline-2-748842</t>
+          <t>https://m.economictimes.com/markets/stocks/earnings/ambuja-cement-q3-results-cons-pat-skyrockets-157-yoy-to-rs-2115-crore-revenue-rises-4/articleshow/117676081.cms</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -2856,12 +2856,12 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Why has Motilal Oswal cut target price for Ambuja Cements? 3 reasons are... - Market News</t>
+          <t>Jupiter Wagons Secures Rs 6 Billion Order from Ambuja Cements and ACC</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>https://www.financialexpress.com/market/why-has-motilal-oswal-cut-target-price-for-ambuja-cements-3-reasons-are-3730997/</t>
+          <t>https://www.constructionworld.in/cement-news/jupiter-wagons-secures-rs-6-billion-order-from-ambuja-cements-and-acc/69012</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -2896,12 +2896,12 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Ambuja Cements Faces Sustained Underperformance Amid Broader Market Trends</t>
+          <t>Ambuja Cements Shows Short-Term Reversal Amid Long-Term Bearish Trends</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>https://www.marketsmojo.com/news/stocks-in-action/ambuja-cements-stock-declines-3-67-on-january-29-underperforming-sector-average-3-403803</t>
+          <t>https://www.marketsmojo.com/news/stocks-in-action/ambuja-cements-gains-3-18-on-february-4-2025-despite-recent-decline-2-748842</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -2936,12 +2936,12 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Ambuja Cements to merge Sanghi Industries, Penna Cement with itself</t>
+          <t>Jupiter Wagons secures major order from Ambuja Cements and ACC</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>https://www.deccanherald.com/business/companies/ambuja-cements-to-merge-sanghi-industries-penna-cement-with-itself-3321662</t>
+          <t>https://www.constructionweekonline.in/business/jupiter-wagons-secures-major-order-from-ambuja-cements-and-acc</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -2976,12 +2976,12 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Ambuja Cements-Adani merger receives no objection letter from stock exchanges</t>
+          <t>Ambuja Cements commissions 200 MW solar power project in Gujarat</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>https://legal.economictimes.indiatimes.com/news/corporate-business/ambuja-cements-adani-merger-receives-no-objection-letter-from-stock-exchanges/116885509</t>
+          <t>https://m.economictimes.com/industry/indl-goods/svs/cement/ambuja-cements-commissions-200-mw-solar-power-project-in-gujarat/articleshow/116295158.cms</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -3016,12 +3016,12 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Ambuja Cements Faces Continued Stock Decline Amid Market Challenges</t>
+          <t>Ambuja Cements, Sun Pharma, Indus Towers and Eicher Motors are analysts' top buy choices for today</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>https://www.marketsmojo.com/news/stocks-in-action/ambuja-cements-stock-declines-3-19-amid-sustained-underperformance-and-losses-990676</t>
+          <t>https://www.cnbctv18.com/photos/market/ambuja-cements-sun-pharma-indus-towers-eicher-motors-top-stock-picks-stocks-to-buy-19545593.htm</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -3056,12 +3056,12 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Vedanta, Ambuja Cements, Bajaj Auto: How to trade these three buzzing stocks</t>
+          <t>Ambuja Q3 profit up 140% to ₹2,620 cr, eyes 118 MTPA capacity by FY26’</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>https://www.businesstoday.in/markets/company-stock/story/vedanta-ambuja-cements-bajaj-auto-how-to-trade-these-three-buzzing-stocks-462207-2025-01-28</t>
+          <t>https://www.fortuneindia.com/enterprise/ambuja-cements-q3-profit-up-140-to-2620-cr-eyes-118-mtpa-capacity-by-fy26/120211</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -3096,12 +3096,12 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Ambuja Cements Shares Tank Over 4% Despite 242% Jump in Q3 Net Profit: Here's Why</t>
+          <t>AMBUJA CEMENTS REPORTED NET PROFIT OF RS 2620 CRORE</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>https://www.outlookbusiness.com/markets/ambuja-cements-shares-tank-over-4-despite-242-jump-in-q3-net-profit-heres-why</t>
+          <t>https://www.icicidirect.com/research/equity/trending-news/ambuja-cements-reported-net-profit-of-rs-2620-crore</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -3136,12 +3136,12 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Ambuja Cements share price: Stock down 24% in 6 months; brokerage sees 20% UPSIDE!</t>
+          <t>Ambuja Cements Faces Continued Stock Decline Amid Broader Market Challenges</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>https://www.etnownews.com/markets/ambuja-cements-share-price-stock-down-24-in-6-months-brokerage-sees-20-upside-article-117744407</t>
+          <t>https://www.marketsmojo.com/news/stocks-in-action/ambuja-cements-stock-declines-4-06-amid-broader-market-challenges-461245</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -3176,12 +3176,12 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Ambuja Cements to merge Sanghi Industries, Penna Cement with itself</t>
+          <t>Adani-owned Ambuja Cements to acquire Orient Cement</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>https://www.thehindu.com/business/ambuja-cements-to-merge-sanghi-industries-penna-cement-with-itself/article68996624.ece</t>
+          <t>https://www.vccircle.com/adaniowned-ambuja-cements-to-acquire-orient-cement</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -3216,12 +3216,12 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Confident About Ambuja Cements’ Growth, Merger With Sanghi Industries And Penna Cement: Investec</t>
+          <t>Ambuja Cements releases 2025 third quarter financial results</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>https://www.ndtvprofit.com/markets/ambuja-cements-merger-sanghi-penna-investec-growth</t>
+          <t>https://www.globalcement.com/news/item/18365-ambuja-cements-releases-2025-third-quarter-financial-results</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -3256,12 +3256,12 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Ambuja Cements Q3 results: Net profit more than doubles on Government sops</t>
+          <t>Ambuja Cements Q3 Result FY2025: PAT zooms by 250% QoQ to Rs 1758 cr; check revenue, EBITDA, margins</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>https://www.thehindubusinessline.com/companies/ambuja-cements-q3-results-net-profit-more-than-doubles-on-government-sops/article69155173.ece</t>
+          <t>https://www.etnownews.com/markets/ambuja-cements-q3-result-fy2025-pat-zooms-by-250-qoq-to-rs-1758-cr-check-revenue-ebitda-margins-article-117677383</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -3296,12 +3296,12 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Jupiter Wagons secures order worth ₹600 crore from Ambuja Cements and ACC</t>
+          <t>Ambuja Cements CSR Initiative Supports Rural Women’s Dairy Business</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>https://www.cnbctv18.com/market/stocks/jupiter-wagons-share-price-secures-order-worth-rs-600-crore-from-ambuja-cements-and-acc-19557003.htm</t>
+          <t>https://smestreet.in/sectors/ambuja-cements-csr-initiative-supports-rural-womens-dairy-business-8688537</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -3336,12 +3336,12 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Ambuja Cements-Adani Merger: BSE, NSE Issue No Objection</t>
+          <t>Ambuja Cements-Adani merger receives no objection letter from stock exchanges</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>https://www.ndtvprofit.com/business/ambuja-cements-adani-merger-bse-nse-issue-no-objection</t>
+          <t>https://legal.economictimes.indiatimes.com/news/corporate-business/ambuja-cements-adani-merger-receives-no-objection-letter-from-stock-exchanges/116885509</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -3376,12 +3376,12 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Ambuja Cements records net profit of Rs 2,620.09 crore in Q3 FY25</t>
+          <t>Titagarh Rail wins order worth ₹537 crore from Ambuja Cements and ACC</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>https://realty.economictimes.indiatimes.com/news/cement/ambuja-cements-records-net-profit-of-rs-2620-09-crore-in-q3-fy25/117690560</t>
+          <t>https://www.cnbctv18.com/market/titagarh-rail-share-price-wins-order-ambuja-cements-acc-stock-reaction-19557435.htm</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -3416,12 +3416,12 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Titagarh Rail wins order worth ₹537 crore from Ambuja Cements and ACC</t>
+          <t>Jupiter Wagons Secures ₹600 Crore Contract from Ambuja Cements and ACC</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>https://www.cnbctv18.com/market/titagarh-rail-share-price-wins-order-ambuja-cements-acc-stock-reaction-19557435.htm</t>
+          <t>https://themachinemaker.com/news/jupiter-wagons-secures-%E2%82%B9600-crore-contract-from-ambuja-cements-and-acc/</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -3456,12 +3456,12 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Motilal Oswal Financial Services maintains buy on Ambuja Cements, lowers target price to Rs 600</t>
+          <t>I-T refund propels Ambuja Cement’s Q3 PAT to ₹2,620 crore</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>https://m.economictimes.com/markets/stocks/recos/motilal-oswal-financial-services-maintains-buy-on-ambuja-cements-lowers-target-price-to-rs-600nbsp/articleshow/117904722.cms</t>
+          <t>https://www.thehindu.com/business/i-t-refund-propels-ambuja-cements-q3-pat-to-2620-crore/article69155221.ece</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -3496,12 +3496,12 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Ambuja Cements acquires 46.8% stake in Orient Cement for ₹8,100 cr</t>
+          <t>Ambuja Cements to merge Sanghi Industries, Penna Cement with itself</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>https://www.thehindubusinessline.com/companies/ambuja-cements-acquires-468-stake-in-orient-cement-for-8100-cr/article68782891.ece</t>
+          <t>https://www.thehindu.com/business/ambuja-cements-to-merge-sanghi-industries-penna-cement-with-itself/article68996624.ece</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -3536,12 +3536,12 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Ambuja Cements’ SEDI transforms life of rural youth through skilling course in Nagaur</t>
+          <t>Adani-owned Ambuja Cements posts Q3 profit surge of 140.21% to Rs 2,620.09 crore, records highest ever cement sales</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>https://www.worldcement.com/asia-pacific-rim/20012025/ambuja-cements-sedi-transforms-life-of-rural-youth-through-skilling-course-in-nagaur/</t>
+          <t>https://www.financialexpress.com/business/industry-adani-owned-ambuja-cements-posts-q3-profit-surge-of-140-21-to-rs-262009-crore-records-highest-ever-cement-sales-3729963/</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -3576,12 +3576,12 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Titagarh Rail Secures Order From Ambuja Cements and ACC</t>
+          <t>Jupiter Wagons shares in focus on signing Rs 600 cr contract with Ambuja Cements, ACC</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>https://www.equitypandit.com/titagarh-rail-secures-order-from-ambuja-cements-and-acc/</t>
+          <t>https://m.economictimes.com/markets/stocks/news/jupiter-wagons-shares-in-focus-on-signing-rs-600-cr-contract-with-ambuja-cements-acc/articleshow/118163198.cms</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -3616,12 +3616,12 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Ambuja Cements shares in focus as cement major merges subsidiaries, Sanghi and Penna Cement; check merger details</t>
+          <t>Sanghi Industries Shares: Falls on merger swap ratio with Ambuja Cements</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>https://upstox.com/news/market-news/stocks/ambuja-cements-shares-in-focus-as-cement-major-to-merge-subsidiaries-sanghi-and-penna-cement-check-merger-details/article-135724/</t>
+          <t>https://www.thehindubusinessline.com/companies/sanghi-ind-shares-fall-on-merger-swap-ratio-with-ambuja-cements/article68999498.ece</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -3656,12 +3656,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>AMBUJA CEMENTS REPORTED NET PROFIT OF RS 2620 CRORE</t>
+          <t>Ambuja Cements Q3 Profit More Than Doubles</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>https://www.icicidirect.com/research/equity/trending-news/ambuja-cements-reported-net-profit-of-rs-2620-crore</t>
+          <t>https://www.ndtvprofit.com/quarterly-earnings/ambuja-cement-q3-results-profit-more-than-doubles</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -3696,12 +3696,12 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Jupiter Wagons Secures Rs 6 Billion Order from Ambuja Cements and ACC</t>
+          <t>Ambuja Cements Q3 results: Net profit more than doubles on Government sops</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>https://www.constructionworld.in/cement-news/jupiter-wagons-secures-rs-6-billion-order-from-ambuja-cements-and-acc/69012</t>
+          <t>https://www.thehindubusinessline.com/companies/ambuja-cements-q3-results-net-profit-more-than-doubles-on-government-sops/article69155173.ece</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -3736,12 +3736,12 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Ambuja Cement Q3 Results: Cons PAT skyrockets 157% YoY to Rs 2,115 crore, revenue rises 4%</t>
+          <t>Sanghi Industries shares tumble 12% on merger with Ambuja Cements</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>https://m.economictimes.com/markets/stocks/earnings/ambuja-cement-q3-results-cons-pat-skyrockets-157-yoy-to-rs-2115-crore-revenue-rises-4/articleshow/117676081.cms</t>
+          <t>https://m.economictimes.com/markets/stocks/news/sanghi-industries-shares-tumble-12-on-merger-with-ambuja-cements/articleshow/116422071.cms</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -3776,12 +3776,12 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Ambuja Cements acquires Orient Cement at Rs 8,100 crore equity value</t>
+          <t>Ambuja Cements to merge Sanghi Industries and Penna Cement with itself</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>https://realty.economictimes.indiatimes.com/news/cement/ambuja-cements-acquires-orient-cement-at-rs-8100-crore-equity-value/114488574</t>
+          <t>https://realty.economictimes.indiatimes.com/news/cement/ambuja-cements-to-merge-sanghi-industries-and-penna-cement-with-itself/116420502</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
@@ -3816,12 +3816,12 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Ambuja Cements commissions 200 MW solar power project in Gujarat</t>
+          <t>Tata Motors, Maruti Suzuki, Bajaj Finance, Ambuja Cements, Raymond Q3 Results Today — Earnings Estimates</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>https://m.economictimes.com/industry/indl-goods/svs/cement/ambuja-cements-commissions-200-mw-solar-power-project-in-gujarat/articleshow/116295158.cms</t>
+          <t>https://www.ndtvprofit.com/quarterly-earnings/tata-motors-maruti-suzuki-bajaj-finance-ambuja-cements-raymond-q3-results-today-earnings-estimates</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -3856,12 +3856,12 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Ambuja Cements Q3 preview: Profit, revenue decline expected</t>
+          <t>Ambuja Cements shares in focus as cement major merges subsidiaries, Sanghi and Penna Cement; check merger details</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>https://www.thehindubusinessline.com/companies/ambuja-cements-q3-preview-profit-revenue-decline-expected/article69153798.ece</t>
+          <t>https://upstox.com/news/market-news/stocks/ambuja-cements-shares-in-focus-as-cement-major-to-merge-subsidiaries-sanghi-and-penna-cement-check-merger-details/article-135724/</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
@@ -3896,12 +3896,12 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Ambuja Cements, Sun Pharma, Indus Towers and Eicher Motors are analysts' top buy choices for today</t>
+          <t>Ambuja Cements’ SEDI transforms life of rural youth through skilling course in Nagaur</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>https://www.cnbctv18.com/photos/market/ambuja-cements-sun-pharma-indus-towers-eicher-motors-top-stock-picks-stocks-to-buy-19545593.htm</t>
+          <t>https://www.worldcement.com/asia-pacific-rim/20012025/ambuja-cements-sedi-transforms-life-of-rural-youth-through-skilling-course-in-nagaur/</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
@@ -3936,12 +3936,12 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Ambuja Cements Q3 Result FY2025: PAT zooms by 250% QoQ to Rs 1758 cr; check revenue, EBITDA, margins</t>
+          <t>Ambuja Cements acquires 46.8% stake in Orient Cement for ₹8,100 cr</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>https://www.etnownews.com/markets/ambuja-cements-q3-result-fy2025-pat-zooms-by-250-qoq-to-rs-1758-cr-check-revenue-ebitda-margins-article-117677383</t>
+          <t>https://www.thehindubusinessline.com/companies/ambuja-cements-acquires-468-stake-in-orient-cement-for-8100-cr/article68782891.ece</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
@@ -3976,12 +3976,12 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Jupiter Wagons secures major order from Ambuja Cements and ACC</t>
+          <t>Ambuja Cements Q3 preview: Profit, revenue decline expected</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>https://www.constructionweekonline.in/business/jupiter-wagons-secures-major-order-from-ambuja-cements-and-acc</t>
+          <t>https://www.thehindubusinessline.com/companies/ambuja-cements-q3-preview-profit-revenue-decline-expected/article69153798.ece</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
@@ -4016,12 +4016,12 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Ambuja Cements Q2 FY25: Profit down 43% to Rs 456 crore; revenue climbs 1%</t>
+          <t>Ambuja Cements Q3 Results: Sharp contraction in margins, other income aids profit</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>https://www.businesstoday.in/markets/stocks/story/ambuja-cements-q2-fy25-profit-down-43-to-rs-456-crore-revenue-climbs-1-451785-2024-10-28</t>
+          <t>https://www.cnbctv18.com/market/ambuja-cements-q3-results-profit-other-income-grants-margin-ebitda-per-tonne-volumes-share-price-reaction-19548311.htm</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
@@ -4056,12 +4056,12 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Ambuja Cements CSR Initiative Supports Rural Women’s Dairy Business</t>
+          <t>Ambuja Cements Q3 earnings: Net profit rises 242%, revenue at Rs 8,415 crore</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>https://smestreet.in/sectors/ambuja-cements-csr-initiative-supports-rural-womens-dairy-business-8688537</t>
+          <t>https://www.businesstoday.in/markets/company-stock/story/ambuja-cements-q3-earnings-net-profit-rises-242-revenue-at-rs-8415-crore-462441-2025-01-29</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
@@ -4096,12 +4096,12 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Ambuja Cements Q3 Profit More Than Doubles</t>
+          <t>Ambuja Cements-Adani Merger: BSE, NSE Issue No Objection</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>https://www.ndtvprofit.com/quarterly-earnings/ambuja-cement-q3-results-profit-more-than-doubles</t>
+          <t>https://www.ndtvprofit.com/business/ambuja-cements-adani-merger-bse-nse-issue-no-objection</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -4136,12 +4136,12 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Ambuja Cements Faces Continued Stock Decline Amid Broader Market Challenges</t>
+          <t>Ambuja Cements to buy 47% stake in Orient Cement at Rs 8,100 crore valuation</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>https://www.marketsmojo.com/news/stocks-in-action/ambuja-cements-stock-declines-4-06-amid-broader-market-challenges-461245</t>
+          <t>https://www.businesstoday.in/markets/stocks/story/ambuja-cements-to-buy-47-stake-in-orient-cement-at-rs-8100-crore-valuation-450971-2024-10-22</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
@@ -4176,12 +4176,12 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Jupiter Wagons shares in focus on signing Rs 600 cr contract with Ambuja Cements, ACC</t>
+          <t>Ambuja Cements' net profit more than doubled in Oct-Dec quarter</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>https://m.economictimes.com/markets/stocks/news/jupiter-wagons-shares-in-focus-on-signing-rs-600-cr-contract-with-ambuja-cements-acc/articleshow/118163198.cms</t>
+          <t>https://infra.economictimes.indiatimes.com/news/construction/ambuja-cements-net-profit-more-than-doubled-in-oct-dec-quarter/117684435</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
@@ -4216,12 +4216,12 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Ambuja Cements releases 2025 third quarter financial results</t>
+          <t>Ambuja Cements Q3 Preview: PAT, revenue may decline YoY as volume remains key factor</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>https://www.globalcement.com/news/item/18365-ambuja-cements-releases-2025-third-quarter-financial-results</t>
+          <t>https://m.economictimes.com/markets/stocks/news/ambuja-cements-q3-preview-net-profit-revenue-likely-decline-yoy/articleshow/117640121.cms</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
@@ -4256,12 +4256,12 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Ambuja Cements Q2 result: Profit and margin decline in Sept quarter but beat estimates</t>
+          <t>Ambuja Cements records net profit of Rs 2,620.09 crore in Q3 FY25</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>https://www.cnbctv18.com/market/earnings/ambuja-cements-q2-result-profit-and-margin-decline-revenue-rises-in-sept-quarter-beat-estimates-19500178.htm</t>
+          <t>https://realty.economictimes.indiatimes.com/news/cement/ambuja-cements-records-net-profit-of-rs-2620-09-crore-in-q3-fy25/117690560</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
@@ -4296,12 +4296,12 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Ambuja Q3 profit up 140% to ₹2,620 cr, eyes 118 MTPA capacity by FY26’</t>
+          <t>Ambuja Cements Faces Sustained Underperformance Amid Broader Market Trends</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>https://www.fortuneindia.com/enterprise/ambuja-cements-q3-profit-up-140-to-2620-cr-eyes-118-mtpa-capacity-by-fy26/120211</t>
+          <t>https://www.marketsmojo.com/news/stocks-in-action/ambuja-cements-stock-declines-3-67-on-january-29-underperforming-sector-average-3-403803</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
@@ -4336,12 +4336,12 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>UltraTech, JK Cements &amp; Ambuja Cements: Axis shares top 3 stock picks from cement space with up to 29% upside</t>
+          <t>Ambuja Cements Shares Tank Over 4% Despite 242% Jump in Q3 Net Profit: Here's Why</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>https://www.businesstoday.in/markets/stocks/story/ultratech-jk-cements-ambuja-cements-axis-shares-top-3-stock-picks-from-cement-space-with-29-upside-464054-2025-02-10</t>
+          <t>https://www.outlookbusiness.com/markets/ambuja-cements-shares-tank-over-4-despite-242-jump-in-q3-net-profit-heres-why</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
@@ -4376,12 +4376,12 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Ambuja Cements to merge Sanghi Industries and Penna Cement with itself</t>
+          <t>Why has Motilal Oswal cut target price for Ambuja Cements? 3 reasons are... - Market News</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>https://realty.economictimes.indiatimes.com/news/cement/ambuja-cements-to-merge-sanghi-industries-and-penna-cement-with-itself/116420502</t>
+          <t>https://www.financialexpress.com/market/why-has-motilal-oswal-cut-target-price-for-ambuja-cements-3-reasons-are-3730997/</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
@@ -4416,12 +4416,12 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Ambuja Cements’ net profit more than doubles in Q3</t>
+          <t>Jupiter Wagons secures order worth ₹600 crore from Ambuja Cements and ACC</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>https://www.sarkaritel.com/ambuja-cements-net-profit-more-than-doubles-in-q3/</t>
+          <t>https://www.cnbctv18.com/market/stocks/jupiter-wagons-share-price-secures-order-worth-rs-600-crore-from-ambuja-cements-and-acc-19557003.htm</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
@@ -4456,12 +4456,12 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Sanghi Industries shares tumble 12% on merger with Ambuja Cements</t>
+          <t>Adani’s Ambuja Cements acquires Orient Cement for Rs 8,100 crore from CK Birla group</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>https://m.economictimes.com/markets/stocks/news/sanghi-industries-shares-tumble-12-on-merger-with-ambuja-cements/articleshow/116422071.cms</t>
+          <t>https://indianexpress.com/article/business/companies/adanis-ambuja-cements-to-acquire-stake-indias-orient-cement-964-mln-9632732/</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
